--- a/doc/crm会员.xlsx
+++ b/doc/crm会员.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liuxili\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\NewIDEAWorkSpace\rookie-project\github-albert-liu435\rookie-cloud-crm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B210E9-D0A4-475A-A94E-C17F1EF2CD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31660646-6448-4FFA-9CF0-CCB752BF2EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="会员" sheetId="1" r:id="rId1"/>
     <sheet name="会员品牌表" sheetId="3" r:id="rId2"/>
     <sheet name="会员品牌等级表" sheetId="4" r:id="rId3"/>
     <sheet name="utm参数表" sheetId="2" r:id="rId4"/>
+    <sheet name="fans表" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>会员ID(数据库唯一ID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +132,42 @@
   </si>
   <si>
     <t>等级名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝唯一ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ouid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>omid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unionid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +496,7 @@
   <dimension ref="B1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B1" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -553,7 +590,7 @@
   <dimension ref="B1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -593,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF16EAC4-B11E-4CB8-BFBD-DD1AB6A875E9}">
   <dimension ref="B1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -672,4 +709,74 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517AF663-4793-4F5B-8C7C-CE0F0E117C67}">
+  <dimension ref="C1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" activeCellId="1" sqref="G11 J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/crm会员.xlsx
+++ b/doc/crm会员.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\NewIDEAWorkSpace\rookie-project\github-albert-liu435\rookie-cloud-crm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31660646-6448-4FFA-9CF0-CCB752BF2EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B15253-6E20-4BB6-80B6-F974553CCDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="会员" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="会员品牌等级表" sheetId="4" r:id="rId3"/>
     <sheet name="utm参数表" sheetId="2" r:id="rId4"/>
     <sheet name="fans表" sheetId="5" r:id="rId5"/>
+    <sheet name="对接第三方应用表" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>会员ID(数据库唯一ID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +169,34 @@
   </si>
   <si>
     <t>会员ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appSecret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appRefreshToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token过期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refreshtoken过期时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517AF663-4793-4F5B-8C7C-CE0F0E117C67}">
   <dimension ref="C1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" activeCellId="1" sqref="G11 J7"/>
     </sheetView>
   </sheetViews>
@@ -779,4 +808,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EBB839-3CD4-49B3-8677-A31DC3076023}">
+  <dimension ref="B2:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/crm会员.xlsx
+++ b/doc/crm会员.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\NewIDEAWorkSpace\rookie-project\github-albert-liu435\rookie-cloud-crm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B15253-6E20-4BB6-80B6-F974553CCDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A20F02F-DD71-4FD8-AD77-4D50EE50183E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="会员" sheetId="1" r:id="rId1"/>
     <sheet name="会员品牌表" sheetId="3" r:id="rId2"/>
     <sheet name="会员品牌等级表" sheetId="4" r:id="rId3"/>
     <sheet name="utm参数表" sheetId="2" r:id="rId4"/>
-    <sheet name="fans表" sheetId="5" r:id="rId5"/>
-    <sheet name="对接第三方应用表" sheetId="6" r:id="rId6"/>
+    <sheet name="品牌表" sheetId="7" r:id="rId5"/>
+    <sheet name="fans表" sheetId="5" r:id="rId6"/>
+    <sheet name="对接第三方应用表" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>会员ID(数据库唯一ID)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +198,10 @@
   </si>
   <si>
     <t>refreshtoken过期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,6 +746,42 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1711F313-9E3E-4B7D-9451-D13A4CC7B81E}">
+  <dimension ref="B1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517AF663-4793-4F5B-8C7C-CE0F0E117C67}">
   <dimension ref="C1:C10"/>
   <sheetViews>
@@ -810,11 +851,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EBB839-3CD4-49B3-8677-A31DC3076023}">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/doc/crm会员.xlsx
+++ b/doc/crm会员.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\NewIDEAWorkSpace\rookie-project\github-albert-liu435\rookie-cloud-crm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A20F02F-DD71-4FD8-AD77-4D50EE50183E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CFF9B0-1865-44E5-BB28-AE4A4DF42B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="会员" sheetId="1" r:id="rId1"/>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -749,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1711F313-9E3E-4B7D-9451-D13A4CC7B81E}">
   <dimension ref="B1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
